--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId2"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="445">
   <si>
     <t>국어국문</t>
   </si>
@@ -1298,6 +1300,142 @@
   </si>
   <si>
     <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1639,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1793,7 @@
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1671,8 +1809,14 @@
       <c r="E1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1692,8 +1836,12 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1708,13 +1856,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1729,13 +1881,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="e">
+        <f>VLOOKUP(F4,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1755,8 +1911,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1771,13 +1931,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1792,13 +1956,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1812,14 +1980,17 @@
         <v>377</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="e">
+        <f>VLOOKUP(F8,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1834,13 +2005,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1855,13 +2030,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1876,13 +2055,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1897,13 +2080,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1923,8 +2110,12 @@
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1939,13 +2130,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1965,8 +2160,12 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -1981,13 +2180,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2002,13 +2205,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2028,8 +2235,12 @@
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2044,13 +2255,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2065,13 +2280,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2086,13 +2305,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2107,13 +2330,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2128,13 +2355,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="e">
+        <f>VLOOKUP(F23,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2149,13 +2380,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2170,13 +2405,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2191,13 +2430,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2217,8 +2460,12 @@
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2233,13 +2480,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2259,8 +2510,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="e">
+        <f>VLOOKUP(F29,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2275,13 +2530,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="e">
+        <f>VLOOKUP(F30,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2301,8 +2560,12 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="e">
+        <f>VLOOKUP(F31,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2322,8 +2585,12 @@
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2338,13 +2605,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2359,13 +2630,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2380,13 +2655,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2406,8 +2685,12 @@
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2422,13 +2705,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2443,13 +2730,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="e">
+        <f>VLOOKUP(F38,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2469,8 +2760,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2490,8 +2785,12 @@
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2506,13 +2805,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2527,13 +2830,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2548,13 +2855,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2569,13 +2880,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2590,13 +2905,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2616,8 +2935,12 @@
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2632,13 +2955,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="e">
+        <f>VLOOKUP(F47,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2653,13 +2980,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2674,13 +3005,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="e">
+        <f>VLOOKUP(F49,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2695,13 +3030,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2716,13 +3055,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2742,8 +3085,12 @@
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2758,13 +3105,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2779,13 +3130,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2805,8 +3160,12 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2826,8 +3185,12 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2842,13 +3205,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2868,8 +3235,12 @@
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2884,13 +3255,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2905,13 +3280,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="e">
+        <f>VLOOKUP(F60,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2926,13 +3305,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2947,13 +3330,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2968,13 +3355,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="e">
+        <f>VLOOKUP(F63,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -2989,13 +3380,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3010,13 +3405,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3031,13 +3430,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="e">
+        <f>VLOOKUP(F66,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3052,13 +3455,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3073,13 +3480,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3094,13 +3505,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3115,13 +3530,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3136,13 +3555,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3162,8 +3585,12 @@
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3178,13 +3605,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3199,13 +3630,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3220,13 +3655,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="e">
+        <f>VLOOKUP(F75,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3241,13 +3680,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3267,8 +3710,12 @@
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3283,13 +3730,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3309,8 +3760,12 @@
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3330,8 +3785,12 @@
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3346,13 +3805,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3367,13 +3830,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3388,13 +3855,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3409,13 +3880,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3430,13 +3905,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3451,13 +3930,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3472,13 +3955,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3493,13 +3980,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3514,13 +4005,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3535,13 +4030,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3556,13 +4055,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3577,13 +4080,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,학과정보!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3598,13 +4105,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3619,13 +4130,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3640,13 +4155,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3661,13 +4180,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3687,8 +4210,12 @@
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3708,8 +4235,12 @@
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3724,13 +4255,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3745,13 +4280,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="e">
+        <f>VLOOKUP(F100,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3766,10 +4305,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,학과정보!$A$1:$B$5,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3777,4 +4320,2695 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>95</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
+        <v>062-087-3999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
+        <v>062-061-0027</v>
+      </c>
+      <c r="F3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-082-5638</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-069-4441</v>
+      </c>
+      <c r="F5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-054-0546</v>
+      </c>
+      <c r="F6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -4366,23 +4366,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,23 +4391,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,19 +4420,19 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4441,23 +4441,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,23 +4466,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4491,23 +4491,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
         <v>85</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4516,23 +4516,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,23 +4541,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4591,23 +4591,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4616,23 +4616,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4641,23 +4641,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4666,23 +4666,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" ca="1" si="0"/>
         <v>67</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4691,23 +4691,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4716,23 +4716,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4741,23 +4741,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4766,23 +4766,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4791,23 +4791,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,23 +4816,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4841,23 +4841,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
@@ -4874,15 +4874,15 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4891,23 +4891,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,11 +4916,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
@@ -4928,11 +4928,11 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4941,23 +4941,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,23 +4966,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
         <v>61</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4991,23 +4991,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,23 +5016,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5041,23 +5041,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5066,23 +5066,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5091,23 +5091,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5116,23 +5116,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,23 +5166,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5191,23 +5191,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
@@ -5224,15 +5224,15 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5241,23 +5241,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,23 +5266,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5291,23 +5291,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5316,23 +5316,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5341,23 +5341,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
         <v>97</v>
       </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
-      </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,23 +5366,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5391,23 +5391,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5416,23 +5416,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5441,23 +5441,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,23 +5466,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5491,23 +5491,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,23 +5516,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5541,23 +5541,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,23 +5566,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5591,23 +5591,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5616,23 +5616,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,23 +5641,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,23 +5666,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5691,23 +5691,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5716,23 +5716,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,23 +5741,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,23 +5766,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5791,23 +5791,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5816,23 +5816,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,23 +5841,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,23 +5866,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5891,23 +5891,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,11 +5916,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
@@ -5928,11 +5928,11 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,23 +5941,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,23 +5966,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="2"/>
         <v>98</v>
       </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5991,23 +5991,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="3"/>
         <v>95</v>
       </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
       <c r="E67">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6016,23 +6016,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,23 +6041,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,11 +6066,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6091,23 +6091,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6116,23 +6116,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6141,23 +6141,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,23 +6166,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6191,23 +6191,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6216,23 +6216,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6241,23 +6241,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,23 +6266,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6291,23 +6291,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6316,23 +6316,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6341,23 +6341,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,23 +6366,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="3"/>
         <v>61</v>
-      </c>
-      <c r="C82">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="3"/>
-        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,23 +6391,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="3"/>
         <v>88</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="3"/>
-        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6416,23 +6416,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6441,23 +6441,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="3"/>
         <v>87</v>
       </c>
-      <c r="C85">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="D85">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
-      </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
@@ -6474,15 +6474,15 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,23 +6491,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,23 +6516,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6541,23 +6541,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6566,23 +6566,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6591,23 +6591,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6616,23 +6616,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="3"/>
         <v>96</v>
-      </c>
-      <c r="E92">
-        <f t="shared" ca="1" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6641,23 +6641,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6666,23 +6666,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="3"/>
         <v>52</v>
       </c>
-      <c r="D94">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
       <c r="F94">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6691,15 +6691,15 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="3"/>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6716,23 +6716,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6741,23 +6741,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6766,23 +6766,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6791,23 +6791,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,19 +6816,19 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="3"/>
@@ -6841,23 +6841,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6870,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
-        <v>062-087-3999</v>
+        <v>062-086-2355</v>
       </c>
       <c r="F2" t="s">
         <v>440</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
-        <v>062-061-0027</v>
+        <v>062-047-4214</v>
       </c>
       <c r="F3" t="s">
         <v>441</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-082-5638</v>
+        <v>062-040-1056</v>
       </c>
       <c r="F4" t="s">
         <v>442</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-069-4441</v>
+        <v>062-039-8080</v>
       </c>
       <c r="F5" t="s">
         <v>443</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-054-0546</v>
+        <v>062-051-5449</v>
       </c>
       <c r="F6" t="s">
         <v>444</v>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4326,7 +4326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -4366,23 +4366,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,23 +4391,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:F34" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
         <v>88</v>
       </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -4416,23 +4416,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4441,23 +4441,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,23 +4466,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4491,23 +4491,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4516,23 +4516,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,11 +4541,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -4553,11 +4553,11 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4566,23 +4566,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4591,23 +4591,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4616,23 +4616,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4641,23 +4641,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4666,23 +4666,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4691,19 +4691,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
@@ -4716,23 +4716,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4741,23 +4741,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4766,23 +4766,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4791,23 +4791,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,23 +4816,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
         <v>77</v>
       </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4841,23 +4841,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,23 +4866,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4891,23 +4891,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,15 +4916,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4941,23 +4941,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,23 +4966,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4991,23 +4991,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,23 +5016,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5041,23 +5041,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5066,23 +5066,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5091,23 +5091,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5116,23 +5116,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5141,23 +5141,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,23 +5166,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5191,23 +5191,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F66" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,23 +5216,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="2"/>
         <v>69</v>
       </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" ca="1" si="2"/>
         <v>73</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5241,23 +5241,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,23 +5266,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5291,23 +5291,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5316,15 +5316,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5341,23 +5341,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,23 +5366,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5391,23 +5391,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5416,23 +5416,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5441,23 +5441,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,23 +5466,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="2"/>
         <v>99</v>
       </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5491,23 +5491,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,23 +5516,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5541,23 +5541,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,23 +5566,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
-      <c r="D50">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5591,23 +5591,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5616,23 +5616,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,15 +5641,15 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,23 +5666,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5691,23 +5691,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="2"/>
         <v>96</v>
       </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="2"/>
-        <v>95</v>
-      </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5716,23 +5716,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,23 +5741,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,23 +5766,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5791,23 +5791,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5816,23 +5816,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,23 +5841,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,23 +5866,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5891,23 +5891,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,23 +5916,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,23 +5941,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,23 +5966,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
         <v>78</v>
       </c>
-      <c r="D66">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
-      </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5991,23 +5991,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F101" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6016,23 +6016,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="3"/>
         <v>93</v>
-      </c>
-      <c r="F68">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,23 +6041,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="3"/>
         <v>84</v>
       </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
       <c r="F69">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,23 +6066,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6091,23 +6091,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6116,23 +6116,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
         <v>85</v>
       </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="3"/>
-        <v>50</v>
-      </c>
       <c r="F72">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6141,23 +6141,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,23 +6166,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
         <v>67</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <f t="shared" ca="1" si="3"/>
         <v>69</v>
       </c>
-      <c r="D74">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
       <c r="E74">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6191,23 +6191,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="3"/>
         <v>93</v>
       </c>
-      <c r="C75">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="D75">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
       <c r="E75">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6216,23 +6216,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6241,23 +6241,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,23 +6266,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6291,23 +6291,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6316,23 +6316,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6341,23 +6341,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,23 +6366,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6391,23 +6391,23 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6416,23 +6416,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6441,23 +6441,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6466,23 +6466,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6491,23 +6491,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,23 +6516,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6541,23 +6541,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6566,23 +6566,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="3"/>
@@ -6599,15 +6599,15 @@
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6616,23 +6616,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6641,23 +6641,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6666,19 +6666,19 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="3"/>
@@ -6691,23 +6691,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="3"/>
         <v>54</v>
       </c>
-      <c r="D95">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
       <c r="F95">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6716,23 +6716,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6741,23 +6741,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6766,23 +6766,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6791,23 +6791,23 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,23 +6816,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
-        <v>062-086-2355</v>
+        <v>062-094-2497</v>
       </c>
       <c r="F2" t="s">
         <v>440</v>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(333333,999999),"-000-0000")</f>
-        <v>062-047-4214</v>
+        <v>062-099-4921</v>
       </c>
       <c r="F3" t="s">
         <v>441</v>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-040-1056</v>
+        <v>062-045-5996</v>
       </c>
       <c r="F4" t="s">
         <v>442</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-039-8080</v>
+        <v>062-035-8018</v>
       </c>
       <c r="F5" t="s">
         <v>443</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-051-5449</v>
+        <v>062-053-9933</v>
       </c>
       <c r="F6" t="s">
         <v>444</v>
